--- a/biology/Zoologie/Gadidae/Gadidae.xlsx
+++ b/biology/Zoologie/Gadidae/Gadidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gadidés (Gadidae) sont une famille de poissons marins appartenant à l'ordre des Gadiformes. Cette famille inclut essentiellement des poissons de mer, comme les morues, aiglefins (haddock), merlans et lieus mais aussi des poissons d'eau douce comme la lotte.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des poissons essentiellement d'eaux froides (répartis principalement dans l'hémisphère nord), au corps allongé et surplombé par trois nageoires dorsales bien distinctes, les anales étant au nombre de deux. Les pelviennes sont en avant des pectorales, et aucune de ces nageoires ne porte d'épine dure. Le menton porte des barbilles sensorielles. La plus grande espèce est la morue de l'Atlantique (Gadus morhua), qui peut mesurer jusqu'à 2 m[1]. 
-Plusieurs espèces vivent en bancs qui effectuent des migrations saisonnières ; la plupart des espèces sont démersales voire benthopélagiques[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des poissons essentiellement d'eaux froides (répartis principalement dans l'hémisphère nord), au corps allongé et surplombé par trois nageoires dorsales bien distinctes, les anales étant au nombre de deux. Les pelviennes sont en avant des pectorales, et aucune de ces nageoires ne porte d'épine dure. Le menton porte des barbilles sensorielles. La plus grande espèce est la morue de l'Atlantique (Gadus morhua), qui peut mesurer jusqu'à 2 m. 
+Plusieurs espèces vivent en bancs qui effectuent des migrations saisonnières ; la plupart des espèces sont démersales voire benthopélagiques. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Aquaculture ?</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude récente[2], en retenant 22 critères d'intérêt pour l'aquaculture pour 20 000 espèces de poissons, la morue et d'autres gadidae apparaissent parmi les espèces potentiellement les plus intéressantes pour l'aquaculture du XXIe siècle (après une période surtout consacrée à la daurade royale et au bar, ce qui pose encore la question de la soutenabilité de la pêche minotière qui alimente l'aquaculture.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude récente, en retenant 22 critères d'intérêt pour l'aquaculture pour 20 000 espèces de poissons, la morue et d'autres gadidae apparaissent parmi les espèces potentiellement les plus intéressantes pour l'aquaculture du XXIe siècle (après une période surtout consacrée à la daurade royale et au bar, ce qui pose encore la question de la soutenabilité de la pêche minotière qui alimente l'aquaculture.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Parasitoses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gadidés comme tous les poissons sont susceptibles d'être parasités, par exemple par Lernaeocera branchialis qui commence sa vie comme un copépode planctonique, avec une larve capable de nage libre recherchant comme premier hôte un poisson plat ou un lompe (Cyclopterus lumpus) sur lequel ils s'accrochent au moyen de deux crochets frontaux. Ils insèrent ensuite un dard filamenteux dans la peau de leur hôte pour se nourrir de son sang. Ils prennent la forme de vers qui se reproduisent sur leur hôte[3],[4]. 
-Le « ver » femelle, avec ses œufs fertilisés trouvera ensuite une morue ou un autre gadidé (églefin Melanogrammus aeglefinus par exemple). Il se fixe sur les branchies de ce nouvel hôte, et se métamorphose en un gros ver au corps sinusoïdal avec une masse de cordons d'œufs enroulés à l'arrière. La partie avant du corps du ver pénètre dans le corps de la morue pour atteindre le système artériel et s'y solidement fixer, jusqu'à libérer sa progéniture en pleine eau[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gadidés comme tous les poissons sont susceptibles d'être parasités, par exemple par Lernaeocera branchialis qui commence sa vie comme un copépode planctonique, avec une larve capable de nage libre recherchant comme premier hôte un poisson plat ou un lompe (Cyclopterus lumpus) sur lequel ils s'accrochent au moyen de deux crochets frontaux. Ils insèrent ensuite un dard filamenteux dans la peau de leur hôte pour se nourrir de son sang. Ils prennent la forme de vers qui se reproduisent sur leur hôte,. 
+Le « ver » femelle, avec ses œufs fertilisés trouvera ensuite une morue ou un autre gadidé (églefin Melanogrammus aeglefinus par exemple). Il se fixe sur les branchies de ce nouvel hôte, et se métamorphose en un gros ver au corps sinusoïdal avec une masse de cordons d'œufs enroulés à l'arrière. La partie avant du corps du ver pénètre dans le corps de la morue pour atteindre le système artériel et s'y solidement fixer, jusqu'à libérer sa progéniture en pleine eau,.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le statut de deux familles proches est encore sujet à débat : les Lotidae et Phycidae, auparavant incluses parmi les Gadidae[1]. 
-Selon World Register of Marine Species                               (3 mars 2016)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le statut de deux familles proches est encore sujet à débat : les Lotidae et Phycidae, auparavant incluses parmi les Gadidae. 
+Selon World Register of Marine Species                               (3 mars 2016) :
 genre Arctogadus Dryagin, 1932
 genre Boreogadus Günther, 1862
 genre Eleginus Fischer, 1813
@@ -623,7 +643,7 @@
 genre Raniceps Oken, 1817
 genre Theragra Lucas in Jordan &amp; Evermann, 1898
 genre Trisopterus Rafinesque, 1814
-Selon ITIS      (juin 2010)[6] :
+Selon ITIS      (juin 2010) :
 famille Gadidae
 sous-famille Gadinae (morue, aiglefin, goberge)
 genre Arctogadus Dryagin, 1932
